--- a/Yolo/src/main/webapp/files/empFile/DBinsert 양식.xlsx
+++ b/Yolo/src/main/webapp/files/empFile/DBinsert 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B06911-1A38-43FA-97AC-57877B02DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEF6BD-2961-46B4-BE9F-283AF88B9D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{C70420BF-BD37-4A0D-8860-FFE77DFACBC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C70420BF-BD37-4A0D-8860-FFE77DFACBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>이름</t>
   </si>
@@ -62,32 +62,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일순신</t>
+    <t>홍길동1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이순신</t>
+    <t>홍길동2</t>
+  </si>
+  <si>
+    <t>홍길동3</t>
+  </si>
+  <si>
+    <t>홍길동4</t>
+  </si>
+  <si>
+    <t>홍길동5</t>
+  </si>
+  <si>
+    <t>홍길동6</t>
+  </si>
+  <si>
+    <t>홍길동7</t>
+  </si>
+  <si>
+    <t>홍길동8</t>
+  </si>
+  <si>
+    <t>홍길동9</t>
+  </si>
+  <si>
+    <t>홍길동10</t>
+  </si>
+  <si>
+    <t>홍길동11</t>
+  </si>
+  <si>
+    <t>홍길동12</t>
+  </si>
+  <si>
+    <t>홍길동13</t>
+  </si>
+  <si>
+    <t>홍길동14</t>
+  </si>
+  <si>
+    <t>홍길동15</t>
+  </si>
+  <si>
+    <t>홍길동16</t>
+  </si>
+  <si>
+    <t>홍길동17</t>
+  </si>
+  <si>
+    <t>홍길동18</t>
+  </si>
+  <si>
+    <t>홍길동19</t>
+  </si>
+  <si>
+    <t>홍길동20</t>
+  </si>
+  <si>
+    <t>hogkil1@yolo.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼순신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사순신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimms1@yolo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimms2@yolo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimms4@yolo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>hogkil2@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil3@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil4@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil5@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil6@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil7@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil8@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil9@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil10@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil11@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil12@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil13@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil14@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil15@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil16@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil17@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil18@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil19@yolo.com</t>
+  </si>
+  <si>
+    <t>hogkil20@yolo.com</t>
   </si>
 </sst>
 </file>
@@ -476,20 +570,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D487AF4-77CA-4934-8BB7-3EB4A6259CF3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="2"/>
+    <col min="4" max="5" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,83 +603,403 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
-        <v>44908</v>
+        <v>44905</v>
       </c>
       <c r="D2" s="2">
         <v>9760</v>
       </c>
       <c r="E2" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
-        <v>44908</v>
+        <v>44905</v>
       </c>
       <c r="D3" s="2">
         <v>9760</v>
       </c>
       <c r="E3" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>44908</v>
+        <v>44905</v>
       </c>
       <c r="D4" s="2">
         <v>9760</v>
       </c>
       <c r="E4" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
-        <v>44908</v>
+        <v>44906</v>
       </c>
       <c r="D5" s="2">
         <v>9760</v>
       </c>
       <c r="E5" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44907</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9761</v>
+      </c>
+      <c r="E6" s="2">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44908</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9762</v>
+      </c>
+      <c r="E7" s="2">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44909</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9763</v>
+      </c>
+      <c r="E8" s="2">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44910</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9764</v>
+      </c>
+      <c r="E9" s="2">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44911</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9765</v>
+      </c>
+      <c r="E10" s="2">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44912</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9766</v>
+      </c>
+      <c r="E11" s="2">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44913</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9767</v>
+      </c>
+      <c r="E12" s="2">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44914</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9768</v>
+      </c>
+      <c r="E13" s="2">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44915</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9769</v>
+      </c>
+      <c r="E14" s="2">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44916</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9770</v>
+      </c>
+      <c r="E15" s="2">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44917</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9771</v>
+      </c>
+      <c r="E16" s="2">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44918</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9772</v>
+      </c>
+      <c r="E17" s="2">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44919</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9773</v>
+      </c>
+      <c r="E18" s="2">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44920</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9774</v>
+      </c>
+      <c r="E19" s="2">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44921</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9775</v>
+      </c>
+      <c r="E20" s="2">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44922</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9776</v>
+      </c>
+      <c r="E21" s="2">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -593,12 +1007,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B7C619DA-9751-47CD-84DB-9ADFF7587366}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{62743EA6-EA1B-48EF-9452-3F4FA3E7D7FA}"/>
-    <hyperlink ref="B4:B5" r:id="rId3" display="kimms2@yolo.com" xr:uid="{4A75FEF9-3399-4607-857F-4D39AF89F786}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{FD4C31BD-9261-46A0-92FE-631A393CD4C1}"/>
+    <hyperlink ref="B3:B21" r:id="rId2" display="hogkil1@yolo.com" xr:uid="{81EBDF30-7490-4103-9F3B-1DCD6A2603C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -610,7 +1022,7 @@
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
